--- a/data/trans_orig/hab_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/hab_R-Habitat-trans_orig.xlsx
@@ -1796,19 +1796,19 @@
         <v>942222</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>885874</v>
+        <v>887233</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>987389</v>
+        <v>989079</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2875658974032656</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2703683459634703</v>
+        <v>0.2707831966512627</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3013509256032784</v>
+        <v>0.30186675376584</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>997</v>
@@ -1817,19 +1817,19 @@
         <v>1038612</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>989654</v>
+        <v>982411</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1091594</v>
+        <v>1098522</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3073546569657104</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2928665725762669</v>
+        <v>0.2907231500577572</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.323033574098946</v>
+        <v>0.3250837212229648</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1991</v>
@@ -1838,19 +1838,19 @@
         <v>1980834</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1909743</v>
+        <v>1895977</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2061059</v>
+        <v>2050223</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.29761288191955</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2869316223499212</v>
+        <v>0.284863396046194</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3096663632999571</v>
+        <v>0.3080382598254882</v>
       </c>
     </row>
     <row r="25">
@@ -1867,19 +1867,19 @@
         <v>678509</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>630049</v>
+        <v>630918</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>730446</v>
+        <v>722637</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2070807338487843</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1922907488133419</v>
+        <v>0.1925559683677892</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2229318946068079</v>
+        <v>0.2205486395228667</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>696</v>
@@ -1888,19 +1888,19 @@
         <v>683841</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>646303</v>
+        <v>639504</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>736861</v>
+        <v>732017</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.202367916061642</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1912593707392115</v>
+        <v>0.1892473881224723</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2180578919797312</v>
+        <v>0.2166245259171461</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1337</v>
@@ -1909,19 +1909,19 @@
         <v>1362350</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1295632</v>
+        <v>1298250</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1427909</v>
+        <v>1434535</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2046879811759311</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1946638971076291</v>
+        <v>0.1950571065289538</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2145379257272412</v>
+        <v>0.2155334478869508</v>
       </c>
     </row>
     <row r="26">
@@ -1938,19 +1938,19 @@
         <v>961800</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>910045</v>
+        <v>909323</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1016662</v>
+        <v>1014723</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2935410826611851</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2777453248861794</v>
+        <v>0.2775252098828879</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3102848084641321</v>
+        <v>0.3096931274546066</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>908</v>
@@ -1959,19 +1959,19 @@
         <v>968393</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>915972</v>
+        <v>912573</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1019525</v>
+        <v>1022787</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2865748989646265</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.271061887848202</v>
+        <v>0.2700561016825821</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3017062234266713</v>
+        <v>0.3026717584804</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1804</v>
@@ -1980,19 +1980,19 @@
         <v>1930193</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1858289</v>
+        <v>1858126</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2000391</v>
+        <v>2014401</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2900042697793032</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2792008482231151</v>
+        <v>0.2791763954832988</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3005511835083325</v>
+        <v>0.3026561929122495</v>
       </c>
     </row>
     <row r="27">
@@ -2009,19 +2009,19 @@
         <v>694012</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>651483</v>
+        <v>646638</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>743174</v>
+        <v>740322</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.211812286086765</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1988325314456508</v>
+        <v>0.1973538727683969</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2268163884874016</v>
+        <v>0.2259460246064538</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>696</v>
@@ -2030,19 +2030,19 @@
         <v>688351</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>639995</v>
+        <v>645657</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>733292</v>
+        <v>737925</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2037025280080212</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.189392739912056</v>
+        <v>0.1910680775333964</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2170017049630838</v>
+        <v>0.2183728707501943</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1379</v>
@@ -2051,19 +2051,19 @@
         <v>1382363</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1315476</v>
+        <v>1313131</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1443964</v>
+        <v>1453600</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2076948671252157</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1976452739079041</v>
+        <v>0.1972929366567031</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2169501178274978</v>
+        <v>0.2183978731575587</v>
       </c>
     </row>
     <row r="28">
@@ -3447,19 +3447,19 @@
         <v>947739</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>895167</v>
+        <v>890971</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1000296</v>
+        <v>1004127</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2765685898087414</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2612268920514385</v>
+        <v>0.2600024996048106</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2919056175919885</v>
+        <v>0.2930236874071753</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1003</v>
@@ -3468,19 +3468,19 @@
         <v>1051901</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>998623</v>
+        <v>999462</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1112965</v>
+        <v>1110854</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2956182304137982</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2806454099774012</v>
+        <v>0.2808810436696618</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3127791417736436</v>
+        <v>0.3121858175650024</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1913</v>
@@ -3489,19 +3489,19 @@
         <v>1999640</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1927974</v>
+        <v>1924470</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2085550</v>
+        <v>2082268</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2862727638714805</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2760128619789149</v>
+        <v>0.2755111831712799</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2985718072943925</v>
+        <v>0.298101883862235</v>
       </c>
     </row>
     <row r="25">
@@ -3518,19 +3518,19 @@
         <v>757623</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>708374</v>
+        <v>709988</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>805243</v>
+        <v>805513</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2210890592453012</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2067171687994415</v>
+        <v>0.2071882819694474</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2349853730155963</v>
+        <v>0.2350641041063159</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>705</v>
@@ -3539,19 +3539,19 @@
         <v>777174</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>727854</v>
+        <v>722991</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>831951</v>
+        <v>826088</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2184110449855174</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2045504240050612</v>
+        <v>0.2031839115355821</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2338050830709474</v>
+        <v>0.2321574200147043</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1394</v>
@@ -3560,19 +3560,19 @@
         <v>1534797</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1456458</v>
+        <v>1464090</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1603525</v>
+        <v>1607769</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2197248384151958</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2085096421963147</v>
+        <v>0.2096022421649207</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.229564046141469</v>
+        <v>0.2301716733417742</v>
       </c>
     </row>
     <row r="26">
@@ -3589,19 +3589,19 @@
         <v>1017947</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>964833</v>
+        <v>956448</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1075889</v>
+        <v>1069980</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2970565651903703</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2815567842413962</v>
+        <v>0.2791099545837697</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3139651795813106</v>
+        <v>0.3122408791022641</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>940</v>
@@ -3610,19 +3610,19 @@
         <v>1032184</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>971614</v>
+        <v>976949</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1083572</v>
+        <v>1087267</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2900771150312048</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2730548500488851</v>
+        <v>0.2745541497072124</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.304518713523454</v>
+        <v>0.3055570949853988</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1876</v>
@@ -3631,19 +3631,19 @@
         <v>2050131</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1978020</v>
+        <v>1969089</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2128764</v>
+        <v>2124545</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2935011280768336</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2831775567397444</v>
+        <v>0.2818989459291504</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3047583409954296</v>
+        <v>0.3041544207561965</v>
       </c>
     </row>
     <row r="27">
@@ -3660,19 +3660,19 @@
         <v>703469</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>654503</v>
+        <v>656712</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>748782</v>
+        <v>750918</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.205285785755587</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1909966108921087</v>
+        <v>0.1916411259960884</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2185089777429371</v>
+        <v>0.2191322725240171</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>650</v>
@@ -3681,19 +3681,19 @@
         <v>697050</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>651835</v>
+        <v>646647</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>747837</v>
+        <v>743451</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1958936095694797</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1831867717365983</v>
+        <v>0.1817287516895451</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2101664254391963</v>
+        <v>0.2089338892195386</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1324</v>
@@ -3702,19 +3702,19 @@
         <v>1400519</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1329267</v>
+        <v>1333201</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1469273</v>
+        <v>1469388</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.20050126963649</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1903006508454645</v>
+        <v>0.1908638286561362</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2103442482660712</v>
+        <v>0.210360702392381</v>
       </c>
     </row>
     <row r="28">
@@ -5098,19 +5098,19 @@
         <v>937567</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>884740</v>
+        <v>887134</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>989277</v>
+        <v>997224</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2762139707368455</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2606507978364224</v>
+        <v>0.2613560315055414</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2914482369330897</v>
+        <v>0.2937894358453788</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>959</v>
@@ -5119,19 +5119,19 @@
         <v>1043779</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>991782</v>
+        <v>981569</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1099376</v>
+        <v>1101118</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2944749981084367</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2798055059501932</v>
+        <v>0.276924193190839</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3101601810801073</v>
+        <v>0.3106515602131268</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1891</v>
@@ -5140,19 +5140,19 @@
         <v>1981346</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1902609</v>
+        <v>1901584</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2055560</v>
+        <v>2061542</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2855421135112134</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2741948767828971</v>
+        <v>0.274047261455841</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2962374767819007</v>
+        <v>0.2970995906858316</v>
       </c>
     </row>
     <row r="25">
@@ -5169,19 +5169,19 @@
         <v>759552</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>711833</v>
+        <v>711792</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>815292</v>
+        <v>810913</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2237695848496856</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2097112259898415</v>
+        <v>0.2096991349189299</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2401908250700208</v>
+        <v>0.2389007271368104</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>736</v>
@@ -5190,19 +5190,19 @@
         <v>785011</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>736161</v>
+        <v>735357</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>840582</v>
+        <v>836644</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2214703628507727</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2076886929083176</v>
+        <v>0.2074618870548347</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2371482416550201</v>
+        <v>0.236037328069038</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1432</v>
@@ -5211,19 +5211,19 @@
         <v>1544563</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1473772</v>
+        <v>1475289</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1623984</v>
+        <v>1622278</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2225950906309653</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2123929782547193</v>
+        <v>0.2126116644725675</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2340407846780487</v>
+        <v>0.2337950267177661</v>
       </c>
     </row>
     <row r="26">
@@ -5240,19 +5240,19 @@
         <v>1022431</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>975120</v>
+        <v>971591</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1081295</v>
+        <v>1078790</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3012155162780333</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2872773590692447</v>
+        <v>0.2862378369371713</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3185573174679734</v>
+        <v>0.3178192312123853</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>977</v>
@@ -5261,19 +5261,19 @@
         <v>1042913</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>985259</v>
+        <v>992473</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1099573</v>
+        <v>1102682</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2942306795900514</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2779651726132907</v>
+        <v>0.2800003518054377</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3102159499915291</v>
+        <v>0.3110929581599029</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1928</v>
@@ -5282,19 +5282,19 @@
         <v>2065344</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1987246</v>
+        <v>1991669</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2144803</v>
+        <v>2135593</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2976475048756463</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2863923961041316</v>
+        <v>0.2870297862114905</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.309098842801307</v>
+        <v>0.3077715215064142</v>
       </c>
     </row>
     <row r="27">
@@ -5311,19 +5311,19 @@
         <v>674800</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>626023</v>
+        <v>629423</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>720697</v>
+        <v>722194</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1988009281354357</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1844309147714919</v>
+        <v>0.1854325278768604</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2123225898330379</v>
+        <v>0.2127634689047148</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>666</v>
@@ -5332,19 +5332,19 @@
         <v>672839</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>629329</v>
+        <v>630430</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>717041</v>
+        <v>719517</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1898239594507392</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1775488737666004</v>
+        <v>0.1778594615523857</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2022943665249652</v>
+        <v>0.2029930389803683</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1318</v>
@@ -5353,19 +5353,19 @@
         <v>1347639</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1282800</v>
+        <v>1276831</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1417724</v>
+        <v>1412120</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.194215290982175</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1848709504122173</v>
+        <v>0.1840107531081879</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2043155549333405</v>
+        <v>0.2035080334283854</v>
       </c>
     </row>
     <row r="28">
@@ -6749,19 +6749,19 @@
         <v>990062</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>932443</v>
+        <v>932121</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1048808</v>
+        <v>1047454</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2802516191374658</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2639416904640312</v>
+        <v>0.2638504848407472</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2968804092764749</v>
+        <v>0.2964972121118838</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1562</v>
@@ -6770,19 +6770,19 @@
         <v>1119041</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1068596</v>
+        <v>1063759</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1169172</v>
+        <v>1168560</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2994528047822302</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2859537196198741</v>
+        <v>0.2846594238327128</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3128676674252869</v>
+        <v>0.3127039797467526</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2568</v>
@@ -6791,19 +6791,19 @@
         <v>2109104</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2034786</v>
+        <v>2041763</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2180792</v>
+        <v>2188401</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2901218740353183</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2798989535889916</v>
+        <v>0.2808586987812408</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2999830792249204</v>
+        <v>0.3010298065269114</v>
       </c>
     </row>
     <row r="25">
@@ -6820,19 +6820,19 @@
         <v>803073</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>747183</v>
+        <v>743133</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>860251</v>
+        <v>860876</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2273215644049354</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2115011784192415</v>
+        <v>0.2103545503351036</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2435065094267825</v>
+        <v>0.2436836177189632</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1047</v>
@@ -6841,19 +6841,19 @@
         <v>812259</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>766800</v>
+        <v>766964</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>860186</v>
+        <v>859819</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2173584741881316</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2051938176566677</v>
+        <v>0.2052377034747116</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2301837788418307</v>
+        <v>0.2300856061768652</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1723</v>
@@ -6862,19 +6862,19 @@
         <v>1615332</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1548509</v>
+        <v>1546768</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1700392</v>
+        <v>1689486</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2222000973336055</v>
+        <v>0.2222000973336054</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2130082198686172</v>
+        <v>0.2127687168297485</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2339007619495917</v>
+        <v>0.2324005446442073</v>
       </c>
     </row>
     <row r="26">
@@ -6891,19 +6891,19 @@
         <v>1048917</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>987394</v>
+        <v>988882</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1114651</v>
+        <v>1108958</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2969113569095618</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.279496239904473</v>
+        <v>0.2799176216526033</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3155182310650549</v>
+        <v>0.3139066812257345</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1517</v>
@@ -6912,19 +6912,19 @@
         <v>1071474</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1024343</v>
+        <v>1020399</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1122690</v>
+        <v>1121163</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2867239579870006</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2741118424728632</v>
+        <v>0.2730563363256146</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3004292388948072</v>
+        <v>0.3000206660203413</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2481</v>
@@ -6933,19 +6933,19 @@
         <v>2120391</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2046230</v>
+        <v>2038235</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2190017</v>
+        <v>2193647</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2916745852865966</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2814732023896371</v>
+        <v>0.2803733398712716</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.301252027217735</v>
+        <v>0.3017513977627936</v>
       </c>
     </row>
     <row r="27">
@@ -6962,19 +6962,19 @@
         <v>690710</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>643715</v>
+        <v>642421</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>743613</v>
+        <v>741896</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.195515459548037</v>
+        <v>0.1955154595480371</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1822129666285048</v>
+        <v>0.1818466795285053</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2104905266280429</v>
+        <v>0.2100045435610209</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1241</v>
@@ -6983,19 +6983,19 @@
         <v>734180</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>696912</v>
+        <v>692505</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>776806</v>
+        <v>774199</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1964647630426377</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1864920672407571</v>
+        <v>0.1853125776971413</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2078713338489603</v>
+        <v>0.2071737731556326</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1971</v>
@@ -7004,19 +7004,19 @@
         <v>1424889</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1358822</v>
+        <v>1356113</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1493141</v>
+        <v>1491388</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1960034433444796</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1869153739531618</v>
+        <v>0.1865427468881932</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2053919566222803</v>
+        <v>0.2051508126271807</v>
       </c>
     </row>
     <row r="28">
